--- a/target/test-classes/com/vmetry/datautils/MultiData.xlsx
+++ b/target/test-classes/com/vmetry/datautils/MultiData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="467"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="467" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Booking" sheetId="1" r:id="rId1"/>
+    <sheet name="SignIn" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Input 1</t>
   </si>
@@ -71,6 +72,15 @@
   </si>
   <si>
     <t>Premium</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>User123</t>
+  </si>
+  <si>
+    <t>User1342</t>
   </si>
 </sst>
 </file>
@@ -480,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,4 +582,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" activeCellId="1" sqref="C4 D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8877996655</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1114444777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>